--- a/overig/Projectindeling Sprint 3 2019-2020.xlsx
+++ b/overig/Projectindeling Sprint 3 2019-2020.xlsx
@@ -1233,7 +1233,9 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <Aantal xmlns="e5014122-0f0a-4a7a-8043-8075ae17fa9b">1</Aantal>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -1247,8 +1249,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6045094B2337B4E861EE53AF1B18597" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fed8227e2ca0f700f3662c9f5dba23c6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5014122-0f0a-4a7a-8043-8075ae17fa9b" xmlns:ns3="650060f8-5ca3-4039-8c45-fe2a2bb4b312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5924e6c42132f243bf4aa5f0fc5ab4b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6045094B2337B4E861EE53AF1B18597" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="dc843967ebd8ea9a9aabe7a53e08e0d9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5014122-0f0a-4a7a-8043-8075ae17fa9b" xmlns:ns3="650060f8-5ca3-4039-8c45-fe2a2bb4b312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca66ed923399070d37c96f0adc8a4a6" ns2:_="" ns3:_="">
     <xsd:import namespace="e5014122-0f0a-4a7a-8043-8075ae17fa9b"/>
     <xsd:import namespace="650060f8-5ca3-4039-8c45-fe2a2bb4b312"/>
     <xsd:element name="properties">
@@ -1267,6 +1269,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:Aantal" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1319,11 +1322,16 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="Aantal" ma:index="18" nillable="true" ma:displayName="Aantal" ma:default="1" ma:format="Dropdown" ma:internalName="Aantal" ma:percentage="FALSE">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="650060f8-5ca3-4039-8c45-fe2a2bb4b312" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1342,7 +1350,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1359,8 +1367,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1475,5 +1483,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416E7AD3-48F5-448F-AD5F-3AB6F0A60B0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D33C40F2-8D0A-48CC-85CA-B8BFA6873A23}"/>
 </file>